--- a/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F4A74C-B50C-4BE8-A326-F3D159934CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD729A5-F61B-4706-B4CB-B1F6A64C7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -527,29 +527,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +600,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -768,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -905,17 +905,17 @@
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -923,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -931,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -939,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -947,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -968,13 +968,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -982,7 +982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>37</v>
       </c>
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>37</v>
       </c>
@@ -1056,17 +1056,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>

--- a/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD729A5-F61B-4706-B4CB-B1F6A64C7494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD2DF4-6437-4881-B2E2-3BFDE9E6DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>jmuller@hl.com.test</t>
   </si>
   <si>
-    <t>Bingo#12345</t>
-  </si>
-  <si>
     <t>ccroft@hl.com.test</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>8000.0</t>
+  </si>
+  <si>
+    <t>Bingo@12345</t>
   </si>
 </sst>
 </file>
@@ -608,34 +608,34 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
@@ -644,7 +644,7 @@
         <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
@@ -685,13 +685,13 @@
         <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>18</v>
@@ -706,7 +706,7 @@
         <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -741,10 +741,10 @@
         <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
@@ -762,7 +762,7 @@
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -776,31 +776,31 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
@@ -812,7 +812,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>19</v>
@@ -832,34 +832,34 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>18</v>
@@ -868,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>19</v>
@@ -917,7 +917,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -965,7 +965,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,10 +984,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -998,7 +998,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1009,7 +1009,7 @@
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1039,14 +1039,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="Bingo@12345" xr:uid="{2E5249D1-D116-40F1-B755-7FE694DEC567}"/>
-    <hyperlink ref="B5" r:id="rId2" display="Bingo@12345" xr:uid="{B53E1165-35E2-4B21-A887-9D901F29C114}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{F02B61D7-72B9-4D2E-B915-44297625D2AF}"/>
-    <hyperlink ref="B6" r:id="rId4" display="Bingo@12345" xr:uid="{B85CB09B-F391-4195-A8DE-2766CBD0A996}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{6ED0707E-1A3D-41DE-9D1F-0C185E1F4903}"/>
-    <hyperlink ref="B3" r:id="rId6" display="Bingo@12345" xr:uid="{CFCBD0EC-14A1-42F8-B2FE-66E3B78D8536}"/>
-    <hyperlink ref="B2" r:id="rId7" display="Bingo@12345" xr:uid="{F5ABB08F-0E99-4393-BD18-BB8359CD1CDF}"/>
-    <hyperlink ref="A2" r:id="rId8" xr:uid="{3AE96451-6015-4B75-B429-A2FC3B1EE6AA}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{F02B61D7-72B9-4D2E-B915-44297625D2AF}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{6ED0707E-1A3D-41DE-9D1F-0C185E1F4903}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{3AE96451-6015-4B75-B429-A2FC3B1EE6AA}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{9A31DD7D-2888-42DF-BEAC-142F98CDD3EB}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{1765B745-BC9C-473A-9AD9-A84B2DA13B90}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{9F78B869-3282-4479-B7E3-EBE471389C75}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{985442A3-05D8-4420-9B55-CE1C9D3605F5}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{D7C41ED8-03F1-4EF0-BEB1-B7B57E28094F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -1101,7 +1101,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1112,7 +1112,7 @@
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1134,6 +1134,11 @@
     <hyperlink ref="A6" r:id="rId1" xr:uid="{B9A7F899-487B-42D1-A213-B9347680029F}"/>
     <hyperlink ref="A2" r:id="rId2" xr:uid="{79720E3D-20FE-47F8-90F3-AFA422CB7875}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{D9DBCD1E-21DD-4FE3-ABF1-923AAF13EA17}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{6FA69749-28BD-4406-B674-1A5B5352E331}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{75DBF9BC-20B1-487A-BE51-AC29449E43EA}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{D04AB28D-65C9-4F66-804B-52D199D388C4}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{E10572B8-0D88-4275-BCE4-ACE1511706A7}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{8DEDF1EA-1F8D-4540-906E-BE6AEC9CE628}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AD2DF4-6437-4881-B2E2-3BFDE9E6DB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA973D6-C661-4BD3-AF25-FFB09C315E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>LOB</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Oscar Aarts</t>
   </si>
   <si>
-    <t>Test Houlihan</t>
-  </si>
-  <si>
     <t>Test Event</t>
   </si>
   <si>
@@ -186,7 +183,7 @@
     <t>8000.0</t>
   </si>
   <si>
-    <t>Bingo@12345</t>
+    <t>Bingo@1234</t>
   </si>
 </sst>
 </file>
@@ -525,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,34 +605,34 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>18</v>
@@ -644,16 +641,16 @@
         <v>28</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>20</v>
+      <c r="Q2" t="s">
+        <v>39</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -664,34 +661,34 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>18</v>
@@ -700,16 +697,16 @@
         <v>28</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" t="s">
-        <v>40</v>
+      <c r="Q3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -720,34 +717,34 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>18</v>
@@ -756,16 +753,16 @@
         <v>28</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" t="s">
-        <v>40</v>
+      <c r="Q4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -779,31 +776,31 @@
         <v>37</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>18</v>
@@ -812,7 +809,7 @@
         <v>28</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>19</v>
@@ -821,7 +818,7 @@
         <v>20</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -832,34 +829,34 @@
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>18</v>
@@ -868,28 +865,17 @@
         <v>28</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>20</v>
+      <c r="Q6" t="s">
+        <v>39</v>
       </c>
       <c r="R6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,7 +888,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -917,26 +903,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,15 +930,15 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +951,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,36 +969,36 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
+      <c r="A4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,35 +1006,35 @@
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>36</v>
+      <c r="A6" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{F02B61D7-72B9-4D2E-B915-44297625D2AF}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{6ED0707E-1A3D-41DE-9D1F-0C185E1F4903}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{3AE96451-6015-4B75-B429-A2FC3B1EE6AA}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{9A31DD7D-2888-42DF-BEAC-142F98CDD3EB}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{1765B745-BC9C-473A-9AD9-A84B2DA13B90}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{9F78B869-3282-4479-B7E3-EBE471389C75}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{985442A3-05D8-4420-9B55-CE1C9D3605F5}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{D7C41ED8-03F1-4EF0-BEB1-B7B57E28094F}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F02B61D7-72B9-4D2E-B915-44297625D2AF}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{6ED0707E-1A3D-41DE-9D1F-0C185E1F4903}"/>
+    <hyperlink ref="B2:B3" r:id="rId3" display="Bingo@1234" xr:uid="{3BA6708A-8B66-4150-B2C3-3D47281B0930}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{89502525-697E-4B3E-9528-5A82E24C3C96}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{A88A08DE-BC8D-44F4-B4A3-F3F45BEED893}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{8488E6F0-EF1A-47F6-BC3A-BC1B8B9AF0FA}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{89F9F2C5-D66A-4575-90B5-BBEE077B42A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1056,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,70 +1062,66 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{B9A7F899-487B-42D1-A213-B9347680029F}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{79720E3D-20FE-47F8-90F3-AFA422CB7875}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{D9DBCD1E-21DD-4FE3-ABF1-923AAF13EA17}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{6FA69749-28BD-4406-B674-1A5B5352E331}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{75DBF9BC-20B1-487A-BE51-AC29449E43EA}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{D04AB28D-65C9-4F66-804B-52D199D388C4}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{E10572B8-0D88-4275-BCE4-ACE1511706A7}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{8DEDF1EA-1F8D-4540-906E-BE6AEC9CE628}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{B9A7F899-487B-42D1-A213-B9347680029F}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{49CDF971-88A0-478A-9ABD-0C13B137739B}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{DD33285A-BEC3-43E6-9CF7-C07B547F86A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA973D6-C661-4BD3-AF25-FFB09C315E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA628042-AC83-4996-A90E-2EC04AC424B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
   <si>
     <t>LOB</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Bingo@1234</t>
+  </si>
+  <si>
+    <t>Bingo@123456</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -995,7 +998,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1006,7 +1009,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1017,7 +1020,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1027,14 +1030,15 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{F02B61D7-72B9-4D2E-B915-44297625D2AF}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{6ED0707E-1A3D-41DE-9D1F-0C185E1F4903}"/>
-    <hyperlink ref="B2:B3" r:id="rId3" display="Bingo@1234" xr:uid="{3BA6708A-8B66-4150-B2C3-3D47281B0930}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{89502525-697E-4B3E-9528-5A82E24C3C96}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{A88A08DE-BC8D-44F4-B4A3-F3F45BEED893}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{8488E6F0-EF1A-47F6-BC3A-BC1B8B9AF0FA}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{89F9F2C5-D66A-4575-90B5-BBEE077B42A5}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{A88A08DE-BC8D-44F4-B4A3-F3F45BEED893}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{88D13356-CD0F-4958-BE46-AB501B49D616}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{0C4E5F7A-199B-44E4-9D61-A72EC878705A}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{86E2AB91-5475-4A32-A0B6-24F80795CEF9}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{8BBDADB2-F7D7-48B9-A02D-97E76879A177}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{87F05E24-278F-44B1-8C83-DD76224C519C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
+++ b/TestData/T2279_TMTI0036293_91_92_93_95_97_98_ApproveEventExpenseFormAsSecondLevelApprover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VKumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA628042-AC83-4996-A90E-2EC04AC424B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C10B4C4-4746-4CDD-B446-05264B263F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="14655" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpenseRequest" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="52">
   <si>
     <t>LOB</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>8000.0</t>
-  </si>
-  <si>
-    <t>Bingo@1234</t>
   </si>
   <si>
     <t>Bingo@123456</t>
@@ -954,13 +951,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,7 +973,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -987,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -998,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1009,7 +1006,7 @@
         <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1020,7 +1017,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1047,13 +1044,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,8 +1121,13 @@
     <hyperlink ref="A4" r:id="rId1" xr:uid="{B9A7F899-487B-42D1-A213-B9347680029F}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{49CDF971-88A0-478A-9ABD-0C13B137739B}"/>
     <hyperlink ref="A6" r:id="rId3" xr:uid="{DD33285A-BEC3-43E6-9CF7-C07B547F86A0}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{E884574A-2EFB-4087-B99B-32D65C06622B}"/>
+    <hyperlink ref="B3" r:id="rId5" xr:uid="{6FDB6FAE-2678-4D0A-844A-D0E0F7D83FE8}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{63848CA5-DB2C-4AE0-AEAA-FE709617B998}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{449ECCB6-ADD3-49DB-B00C-07186A4B0F38}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{91A2AD90-3E91-42F8-A59E-0B11EED9136A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>